--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.410387</v>
+        <v>9.0593035</v>
       </c>
       <c r="H2">
-        <v>16.820774</v>
+        <v>18.118607</v>
       </c>
       <c r="I2">
-        <v>0.1877733157930019</v>
+        <v>0.2059870424264786</v>
       </c>
       <c r="J2">
-        <v>0.1405219530469756</v>
+        <v>0.155107484181908</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.549349</v>
+        <v>14.3591045</v>
       </c>
       <c r="N2">
-        <v>21.098698</v>
+        <v>28.718209</v>
       </c>
       <c r="O2">
-        <v>0.2003757356031913</v>
+        <v>0.2410848207425929</v>
       </c>
       <c r="P2">
-        <v>0.1553690022437478</v>
+        <v>0.1900448623845124</v>
       </c>
       <c r="Q2">
-        <v>88.724107688063</v>
+        <v>130.0834856537158</v>
       </c>
       <c r="R2">
-        <v>354.896430752252</v>
+        <v>520.3339426148631</v>
       </c>
       <c r="S2">
-        <v>0.03762521627867309</v>
+        <v>0.04966034919868449</v>
       </c>
       <c r="T2">
-        <v>0.02183275563825138</v>
+        <v>0.02947738048615865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.410387</v>
+        <v>9.0593035</v>
       </c>
       <c r="H3">
-        <v>16.820774</v>
+        <v>18.118607</v>
       </c>
       <c r="I3">
-        <v>0.1877733157930019</v>
+        <v>0.2059870424264786</v>
       </c>
       <c r="J3">
-        <v>0.1405219530469756</v>
+        <v>0.155107484181908</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>22.867162</v>
       </c>
       <c r="O3">
-        <v>0.1447806370771423</v>
+        <v>0.1279774712891934</v>
       </c>
       <c r="P3">
-        <v>0.1683918194424199</v>
+        <v>0.1513251280890933</v>
       </c>
       <c r="Q3">
-        <v>64.10722733723134</v>
+        <v>69.05352024722234</v>
       </c>
       <c r="R3">
-        <v>384.643364023388</v>
+        <v>414.321121483334</v>
       </c>
       <c r="S3">
-        <v>0.02718594028659824</v>
+        <v>0.02636170080808053</v>
       </c>
       <c r="T3">
-        <v>0.02366274734518252</v>
+        <v>0.02347165991140424</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.410387</v>
+        <v>9.0593035</v>
       </c>
       <c r="H4">
-        <v>16.820774</v>
+        <v>18.118607</v>
       </c>
       <c r="I4">
-        <v>0.1877733157930019</v>
+        <v>0.2059870424264786</v>
       </c>
       <c r="J4">
-        <v>0.1405219530469756</v>
+        <v>0.155107484181908</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.987528666666667</v>
+        <v>10.16741533333333</v>
       </c>
       <c r="N4">
-        <v>17.962586</v>
+        <v>30.502246</v>
       </c>
       <c r="O4">
-        <v>0.1137279144929728</v>
+        <v>0.1707076860574528</v>
       </c>
       <c r="P4">
-        <v>0.1322749424887504</v>
+        <v>0.2018508585785606</v>
       </c>
       <c r="Q4">
-        <v>50.35743326026067</v>
+        <v>92.10970131522033</v>
       </c>
       <c r="R4">
-        <v>302.144599561564</v>
+        <v>552.658207891322</v>
       </c>
       <c r="S4">
-        <v>0.0213550676025685</v>
+        <v>0.03516357137044252</v>
       </c>
       <c r="T4">
-        <v>0.01858753325769559</v>
+        <v>0.03130857885407863</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.410387</v>
+        <v>9.0593035</v>
       </c>
       <c r="H5">
-        <v>16.820774</v>
+        <v>18.118607</v>
       </c>
       <c r="I5">
-        <v>0.1877733157930019</v>
+        <v>0.2059870424264786</v>
       </c>
       <c r="J5">
-        <v>0.1405219530469756</v>
+        <v>0.155107484181908</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.596816</v>
+        <v>13.2092595</v>
       </c>
       <c r="N5">
-        <v>23.193632</v>
+        <v>26.418519</v>
       </c>
       <c r="O5">
-        <v>0.2202714628793548</v>
+        <v>0.2217792870509364</v>
       </c>
       <c r="P5">
-        <v>0.1707959165181028</v>
+        <v>0.1748264944989302</v>
       </c>
       <c r="Q5">
-        <v>97.53371052779201</v>
+        <v>119.6666908207582</v>
       </c>
       <c r="R5">
-        <v>390.134842111168</v>
+        <v>478.666763283033</v>
       </c>
       <c r="S5">
-        <v>0.04136110295943158</v>
+        <v>0.04568365941107543</v>
       </c>
       <c r="T5">
-        <v>0.024000575761572</v>
+        <v>0.02711689773007124</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.410387</v>
+        <v>9.0593035</v>
       </c>
       <c r="H6">
-        <v>16.820774</v>
+        <v>18.118607</v>
       </c>
       <c r="I6">
-        <v>0.1877733157930019</v>
+        <v>0.2059870424264786</v>
       </c>
       <c r="J6">
-        <v>0.1405219530469756</v>
+        <v>0.155107484181908</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.630672333333335</v>
+        <v>8.039057999999999</v>
       </c>
       <c r="N6">
-        <v>28.892017</v>
+        <v>24.117174</v>
       </c>
       <c r="O6">
-        <v>0.1829262690185878</v>
+        <v>0.1349732399307566</v>
       </c>
       <c r="P6">
-        <v>0.2127583348555158</v>
+        <v>0.1595971745290015</v>
       </c>
       <c r="Q6">
-        <v>80.99768139352635</v>
+        <v>72.82826627610299</v>
       </c>
       <c r="R6">
-        <v>485.9860883611581</v>
+        <v>436.969597656618</v>
       </c>
       <c r="S6">
-        <v>0.0343486720792629</v>
+        <v>0.02780273850005605</v>
       </c>
       <c r="T6">
-        <v>0.0298972167409195</v>
+        <v>0.0247547162237343</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.410387</v>
+        <v>9.0593035</v>
       </c>
       <c r="H7">
-        <v>16.820774</v>
+        <v>18.118607</v>
       </c>
       <c r="I7">
-        <v>0.1877733157930019</v>
+        <v>0.2059870424264786</v>
       </c>
       <c r="J7">
-        <v>0.1405219530469756</v>
+        <v>0.155107484181908</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.261083333333333</v>
+        <v>6.163159333333334</v>
       </c>
       <c r="N7">
-        <v>21.78325</v>
+        <v>18.489478</v>
       </c>
       <c r="O7">
-        <v>0.137917980928751</v>
+        <v>0.1034774949290679</v>
       </c>
       <c r="P7">
-        <v>0.1604099844514633</v>
+        <v>0.1223554819199021</v>
       </c>
       <c r="Q7">
-        <v>61.06852087258333</v>
+        <v>55.83393091952434</v>
       </c>
       <c r="R7">
-        <v>366.4111252355</v>
+        <v>335.0035855171461</v>
       </c>
       <c r="S7">
-        <v>0.02589731658646758</v>
+        <v>0.02131502313813963</v>
       </c>
       <c r="T7">
-        <v>0.02254112430335461</v>
+        <v>0.01897825097646095</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.998093333333333</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H8">
         <v>20.99428</v>
       </c>
       <c r="I8">
-        <v>0.1562419409985416</v>
+        <v>0.1591200193654833</v>
       </c>
       <c r="J8">
-        <v>0.1753877216598391</v>
+        <v>0.1797251826815686</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.549349</v>
+        <v>14.3591045</v>
       </c>
       <c r="N8">
-        <v>21.098698</v>
+        <v>28.718209</v>
       </c>
       <c r="O8">
-        <v>0.2003757356031913</v>
+        <v>0.2410848207425929</v>
       </c>
       <c r="P8">
-        <v>0.1553690022437478</v>
+        <v>0.1900448623845124</v>
       </c>
       <c r="Q8">
-        <v>73.82532890790667</v>
+        <v>100.4863534740867</v>
       </c>
       <c r="R8">
-        <v>442.95197344744</v>
+        <v>602.9181208445201</v>
       </c>
       <c r="S8">
-        <v>0.03130709385965318</v>
+        <v>0.03836142134528546</v>
       </c>
       <c r="T8">
-        <v>0.02724981532009337</v>
+        <v>0.03415584760975007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.998093333333333</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H9">
         <v>20.99428</v>
       </c>
       <c r="I9">
-        <v>0.1562419409985416</v>
+        <v>0.1591200193654833</v>
       </c>
       <c r="J9">
-        <v>0.1753877216598391</v>
+        <v>0.1797251826815686</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>22.867162</v>
       </c>
       <c r="O9">
-        <v>0.1447806370771423</v>
+        <v>0.1279774712891934</v>
       </c>
       <c r="P9">
-        <v>0.1683918194424199</v>
+        <v>0.1513251280890933</v>
       </c>
       <c r="Q9">
-        <v>53.34217798148444</v>
+        <v>53.34217798148445</v>
       </c>
       <c r="R9">
-        <v>480.07960183336</v>
+        <v>480.0796018333601</v>
       </c>
       <c r="S9">
-        <v>0.02262080775593813</v>
+        <v>0.02036377770988204</v>
       </c>
       <c r="T9">
-        <v>0.02953385755816102</v>
+        <v>0.02719693629012406</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.998093333333333</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H10">
         <v>20.99428</v>
       </c>
       <c r="I10">
-        <v>0.1562419409985416</v>
+        <v>0.1591200193654833</v>
       </c>
       <c r="J10">
-        <v>0.1753877216598391</v>
+        <v>0.1797251826815686</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.987528666666667</v>
+        <v>10.16741533333333</v>
       </c>
       <c r="N10">
-        <v>17.962586</v>
+        <v>30.502246</v>
       </c>
       <c r="O10">
-        <v>0.1137279144929728</v>
+        <v>0.1707076860574528</v>
       </c>
       <c r="P10">
-        <v>0.1322749424887504</v>
+        <v>0.2018508585785606</v>
       </c>
       <c r="Q10">
-        <v>41.90128444534222</v>
+        <v>71.15252146143112</v>
       </c>
       <c r="R10">
-        <v>377.11156000808</v>
+        <v>640.3726931528801</v>
       </c>
       <c r="S10">
-        <v>0.01776907010609825</v>
+        <v>0.02716301031129873</v>
       </c>
       <c r="T10">
-        <v>0.02319940079578819</v>
+        <v>0.03627768243246327</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.998093333333333</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H11">
         <v>20.99428</v>
       </c>
       <c r="I11">
-        <v>0.1562419409985416</v>
+        <v>0.1591200193654833</v>
       </c>
       <c r="J11">
-        <v>0.1753877216598391</v>
+        <v>0.1797251826815686</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.596816</v>
+        <v>13.2092595</v>
       </c>
       <c r="N11">
-        <v>23.193632</v>
+        <v>26.418519</v>
       </c>
       <c r="O11">
-        <v>0.2202714628793548</v>
+        <v>0.2217792870509364</v>
       </c>
       <c r="P11">
-        <v>0.1707959165181028</v>
+        <v>0.1748264944989302</v>
       </c>
       <c r="Q11">
-        <v>81.15560073749333</v>
+        <v>92.43963084522001</v>
       </c>
       <c r="R11">
-        <v>486.93360442496</v>
+        <v>554.6377850713201</v>
       </c>
       <c r="S11">
-        <v>0.0344156409068586</v>
+        <v>0.03528952445040808</v>
       </c>
       <c r="T11">
-        <v>0.02995550666691413</v>
+        <v>0.03142072366139848</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.998093333333333</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H12">
         <v>20.99428</v>
       </c>
       <c r="I12">
-        <v>0.1562419409985416</v>
+        <v>0.1591200193654833</v>
       </c>
       <c r="J12">
-        <v>0.1753877216598391</v>
+        <v>0.1797251826815686</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.630672333333335</v>
+        <v>8.039057999999999</v>
       </c>
       <c r="N12">
-        <v>28.892017</v>
+        <v>24.117174</v>
       </c>
       <c r="O12">
-        <v>0.1829262690185878</v>
+        <v>0.1349732399307566</v>
       </c>
       <c r="P12">
-        <v>0.2127583348555158</v>
+        <v>0.1595971745290015</v>
       </c>
       <c r="Q12">
-        <v>67.39634385141778</v>
+        <v>56.25807819608</v>
       </c>
       <c r="R12">
-        <v>606.56709466276</v>
+        <v>506.3227037647201</v>
       </c>
       <c r="S12">
-        <v>0.02858075533108554</v>
+        <v>0.02147694455160402</v>
       </c>
       <c r="T12">
-        <v>0.03731519961445005</v>
+        <v>0.02868363134768698</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.998093333333333</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H13">
         <v>20.99428</v>
       </c>
       <c r="I13">
-        <v>0.1562419409985416</v>
+        <v>0.1591200193654833</v>
       </c>
       <c r="J13">
-        <v>0.1753877216598391</v>
+        <v>0.1797251826815686</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.261083333333333</v>
+        <v>6.163159333333334</v>
       </c>
       <c r="N13">
-        <v>21.78325</v>
+        <v>18.489478</v>
       </c>
       <c r="O13">
-        <v>0.137917980928751</v>
+        <v>0.1034774949290679</v>
       </c>
       <c r="P13">
-        <v>0.1604099844514633</v>
+        <v>0.1223554819199021</v>
       </c>
       <c r="Q13">
-        <v>50.81373886777777</v>
+        <v>43.13036424287112</v>
       </c>
       <c r="R13">
-        <v>457.3236498099999</v>
+        <v>388.1732781858401</v>
       </c>
       <c r="S13">
-        <v>0.0215485730389079</v>
+        <v>0.01646534099700498</v>
       </c>
       <c r="T13">
-        <v>0.02813394170443237</v>
+        <v>0.02199036134014578</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.861029333333333</v>
+        <v>8.095122333333334</v>
       </c>
       <c r="H14">
-        <v>26.583088</v>
+        <v>24.285367</v>
       </c>
       <c r="I14">
-        <v>0.1978345181094583</v>
+        <v>0.1840638529798531</v>
       </c>
       <c r="J14">
-        <v>0.2220770247421207</v>
+        <v>0.2078991049259102</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.549349</v>
+        <v>14.3591045</v>
       </c>
       <c r="N14">
-        <v>21.098698</v>
+        <v>28.718209</v>
       </c>
       <c r="O14">
-        <v>0.2003757356031913</v>
+        <v>0.2410848207425929</v>
       </c>
       <c r="P14">
-        <v>0.1553690022437478</v>
+        <v>0.1900448623845124</v>
       </c>
       <c r="Q14">
-        <v>93.47809093657065</v>
+        <v>116.2387075246172</v>
       </c>
       <c r="R14">
-        <v>560.8685456194239</v>
+        <v>697.432245147703</v>
       </c>
       <c r="S14">
-        <v>0.03964123709388558</v>
+        <v>0.04437500100083885</v>
       </c>
       <c r="T14">
-        <v>0.03450388575544339</v>
+        <v>0.03951015678550791</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.861029333333333</v>
+        <v>8.095122333333334</v>
       </c>
       <c r="H15">
-        <v>26.583088</v>
+        <v>24.285367</v>
       </c>
       <c r="I15">
-        <v>0.1978345181094583</v>
+        <v>0.1840638529798531</v>
       </c>
       <c r="J15">
-        <v>0.2220770247421207</v>
+        <v>0.2078991049259102</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>22.867162</v>
       </c>
       <c r="O15">
-        <v>0.1447806370771423</v>
+        <v>0.1279774712891934</v>
       </c>
       <c r="P15">
-        <v>0.1683918194424199</v>
+        <v>0.1513251280890933</v>
       </c>
       <c r="Q15">
-        <v>67.54219775069511</v>
+        <v>61.70415793538378</v>
       </c>
       <c r="R15">
-        <v>607.879779756256</v>
+        <v>555.337421418454</v>
       </c>
       <c r="S15">
-        <v>0.02864260756773683</v>
+        <v>0.02355602646010746</v>
       </c>
       <c r="T15">
-        <v>0.03739595425268499</v>
+        <v>0.03146035868252121</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.861029333333333</v>
+        <v>8.095122333333334</v>
       </c>
       <c r="H16">
-        <v>26.583088</v>
+        <v>24.285367</v>
       </c>
       <c r="I16">
-        <v>0.1978345181094583</v>
+        <v>0.1840638529798531</v>
       </c>
       <c r="J16">
-        <v>0.2220770247421207</v>
+        <v>0.2078991049259102</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.987528666666667</v>
+        <v>10.16741533333333</v>
       </c>
       <c r="N16">
-        <v>17.962586</v>
+        <v>30.502246</v>
       </c>
       <c r="O16">
-        <v>0.1137279144929728</v>
+        <v>0.1707076860574528</v>
       </c>
       <c r="P16">
-        <v>0.1322749424887504</v>
+        <v>0.2018508585785606</v>
       </c>
       <c r="Q16">
-        <v>53.05566714950756</v>
+        <v>82.30647093714245</v>
       </c>
       <c r="R16">
-        <v>477.501004345568</v>
+        <v>740.758238434282</v>
       </c>
       <c r="S16">
-        <v>0.02249930715931096</v>
+        <v>0.0314211144290099</v>
       </c>
       <c r="T16">
-        <v>0.02937522567583682</v>
+        <v>0.04196461282700922</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.861029333333333</v>
+        <v>8.095122333333334</v>
       </c>
       <c r="H17">
-        <v>26.583088</v>
+        <v>24.285367</v>
       </c>
       <c r="I17">
-        <v>0.1978345181094583</v>
+        <v>0.1840638529798531</v>
       </c>
       <c r="J17">
-        <v>0.2220770247421207</v>
+        <v>0.2078991049259102</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.596816</v>
+        <v>13.2092595</v>
       </c>
       <c r="N17">
-        <v>23.193632</v>
+        <v>26.418519</v>
       </c>
       <c r="O17">
-        <v>0.2202714628793548</v>
+        <v>0.2217792870509364</v>
       </c>
       <c r="P17">
-        <v>0.1707959165181028</v>
+        <v>0.1748264944989302</v>
       </c>
       <c r="Q17">
-        <v>102.7597267492693</v>
+        <v>106.9305715852455</v>
       </c>
       <c r="R17">
-        <v>616.5583604956159</v>
+        <v>641.583429511473</v>
       </c>
       <c r="S17">
-        <v>0.0435772987120026</v>
+        <v>0.04082155008572019</v>
       </c>
       <c r="T17">
-        <v>0.03792984897844388</v>
+        <v>0.03634627172366214</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.861029333333333</v>
+        <v>8.095122333333334</v>
       </c>
       <c r="H18">
-        <v>26.583088</v>
+        <v>24.285367</v>
       </c>
       <c r="I18">
-        <v>0.1978345181094583</v>
+        <v>0.1840638529798531</v>
       </c>
       <c r="J18">
-        <v>0.2220770247421207</v>
+        <v>0.2078991049259102</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.630672333333335</v>
+        <v>8.039057999999999</v>
       </c>
       <c r="N18">
-        <v>28.892017</v>
+        <v>24.117174</v>
       </c>
       <c r="O18">
-        <v>0.1829262690185878</v>
+        <v>0.1349732399307566</v>
       </c>
       <c r="P18">
-        <v>0.2127583348555158</v>
+        <v>0.1595971745290015</v>
       </c>
       <c r="Q18">
-        <v>85.33767004538845</v>
+        <v>65.077157954762</v>
       </c>
       <c r="R18">
-        <v>768.0390304084959</v>
+        <v>585.694421592858</v>
       </c>
       <c r="S18">
-        <v>0.03618913028085344</v>
+        <v>0.02484369459082922</v>
       </c>
       <c r="T18">
-        <v>0.04724873799380077</v>
+        <v>0.03318010973328368</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.861029333333333</v>
+        <v>8.095122333333334</v>
       </c>
       <c r="H19">
-        <v>26.583088</v>
+        <v>24.285367</v>
       </c>
       <c r="I19">
-        <v>0.1978345181094583</v>
+        <v>0.1840638529798531</v>
       </c>
       <c r="J19">
-        <v>0.2220770247421207</v>
+        <v>0.2078991049259102</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.261083333333333</v>
+        <v>6.163159333333334</v>
       </c>
       <c r="N19">
-        <v>21.78325</v>
+        <v>18.489478</v>
       </c>
       <c r="O19">
-        <v>0.137917980928751</v>
+        <v>0.1034774949290679</v>
       </c>
       <c r="P19">
-        <v>0.1604099844514633</v>
+        <v>0.1223554819199021</v>
       </c>
       <c r="Q19">
-        <v>64.34067240844443</v>
+        <v>49.89152876315845</v>
       </c>
       <c r="R19">
-        <v>579.0660516759999</v>
+        <v>449.0237588684261</v>
       </c>
       <c r="S19">
-        <v>0.02728493729566893</v>
+        <v>0.01904646641334744</v>
       </c>
       <c r="T19">
-        <v>0.0356233720859108</v>
+        <v>0.02543759517392604</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.257827499999999</v>
+        <v>6.067365000000001</v>
       </c>
       <c r="H20">
-        <v>12.515655</v>
+        <v>12.13473</v>
       </c>
       <c r="I20">
-        <v>0.1397145005735921</v>
+        <v>0.1379574678861274</v>
       </c>
       <c r="J20">
-        <v>0.1045566799876239</v>
+        <v>0.1038814651439112</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.549349</v>
+        <v>14.3591045</v>
       </c>
       <c r="N20">
-        <v>21.098698</v>
+        <v>28.718209</v>
       </c>
       <c r="O20">
-        <v>0.2003757356031913</v>
+        <v>0.2410848207425929</v>
       </c>
       <c r="P20">
-        <v>0.1553690022437478</v>
+        <v>0.1900448623845124</v>
       </c>
       <c r="Q20">
-        <v>66.01600627929749</v>
+        <v>87.12192807464251</v>
       </c>
       <c r="R20">
-        <v>264.0640251171899</v>
+        <v>348.48771229857</v>
       </c>
       <c r="S20">
-        <v>0.02799539582686601</v>
+        <v>0.03325945141542905</v>
       </c>
       <c r="T20">
-        <v>0.01624486704759597</v>
+        <v>0.01974213874757612</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.257827499999999</v>
+        <v>6.067365000000001</v>
       </c>
       <c r="H21">
-        <v>12.515655</v>
+        <v>12.13473</v>
       </c>
       <c r="I21">
-        <v>0.1397145005735921</v>
+        <v>0.1379574678861274</v>
       </c>
       <c r="J21">
-        <v>0.1045566799876239</v>
+        <v>0.1038814651439112</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>22.867162</v>
       </c>
       <c r="O21">
-        <v>0.1447806370771423</v>
+        <v>0.1279774712891934</v>
       </c>
       <c r="P21">
-        <v>0.1683918194424199</v>
+        <v>0.1513251280890933</v>
       </c>
       <c r="Q21">
-        <v>47.69958507018499</v>
+        <v>46.24780612271</v>
       </c>
       <c r="R21">
-        <v>286.19751042111</v>
+        <v>277.48683673626</v>
       </c>
       <c r="S21">
-        <v>0.02022795440195943</v>
+        <v>0.01765544788552669</v>
       </c>
       <c r="T21">
-        <v>0.01760648957797485</v>
+        <v>0.01571987601898504</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.257827499999999</v>
+        <v>6.067365000000001</v>
       </c>
       <c r="H22">
-        <v>12.515655</v>
+        <v>12.13473</v>
       </c>
       <c r="I22">
-        <v>0.1397145005735921</v>
+        <v>0.1379574678861274</v>
       </c>
       <c r="J22">
-        <v>0.1045566799876239</v>
+        <v>0.1038814651439112</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.987528666666667</v>
+        <v>10.16741533333333</v>
       </c>
       <c r="N22">
-        <v>17.962586</v>
+        <v>30.502246</v>
       </c>
       <c r="O22">
-        <v>0.1137279144929728</v>
+        <v>0.1707076860574528</v>
       </c>
       <c r="P22">
-        <v>0.1322749424887504</v>
+        <v>0.2018508585785606</v>
       </c>
       <c r="Q22">
-        <v>37.468921547305</v>
+        <v>61.68941993393</v>
       </c>
       <c r="R22">
-        <v>224.81352928383</v>
+        <v>370.13651960358</v>
       </c>
       <c r="S22">
-        <v>0.01588943877466189</v>
+        <v>0.02355040011718616</v>
       </c>
       <c r="T22">
-        <v>0.01383022883217764</v>
+        <v>0.02096856292969728</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.257827499999999</v>
+        <v>6.067365000000001</v>
       </c>
       <c r="H23">
-        <v>12.515655</v>
+        <v>12.13473</v>
       </c>
       <c r="I23">
-        <v>0.1397145005735921</v>
+        <v>0.1379574678861274</v>
       </c>
       <c r="J23">
-        <v>0.1045566799876239</v>
+        <v>0.1038814651439112</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.596816</v>
+        <v>13.2092595</v>
       </c>
       <c r="N23">
-        <v>23.193632</v>
+        <v>26.418519</v>
       </c>
       <c r="O23">
-        <v>0.2202714628793548</v>
+        <v>0.2217792870509364</v>
       </c>
       <c r="P23">
-        <v>0.1707959165181028</v>
+        <v>0.1748264944989302</v>
       </c>
       <c r="Q23">
-        <v>72.57087407723999</v>
+        <v>80.14539876621751</v>
       </c>
       <c r="R23">
-        <v>290.28349630896</v>
+        <v>320.58159506487</v>
       </c>
       <c r="S23">
-        <v>0.03077511742680358</v>
+        <v>0.03059610887113779</v>
       </c>
       <c r="T23">
-        <v>0.01785785398657621</v>
+        <v>0.01816123239452279</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.257827499999999</v>
+        <v>6.067365000000001</v>
       </c>
       <c r="H24">
-        <v>12.515655</v>
+        <v>12.13473</v>
       </c>
       <c r="I24">
-        <v>0.1397145005735921</v>
+        <v>0.1379574678861274</v>
       </c>
       <c r="J24">
-        <v>0.1045566799876239</v>
+        <v>0.1038814651439112</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.630672333333335</v>
+        <v>8.039057999999999</v>
       </c>
       <c r="N24">
-        <v>28.892017</v>
+        <v>24.117174</v>
       </c>
       <c r="O24">
-        <v>0.1829262690185878</v>
+        <v>0.1349732399307566</v>
       </c>
       <c r="P24">
-        <v>0.2127583348555158</v>
+        <v>0.1595971745290015</v>
       </c>
       <c r="Q24">
-        <v>60.26708617102251</v>
+        <v>48.77589914217</v>
       </c>
       <c r="R24">
-        <v>361.602517026135</v>
+        <v>292.65539485302</v>
       </c>
       <c r="S24">
-        <v>0.02555745231772254</v>
+        <v>0.01862056641323392</v>
       </c>
       <c r="T24">
-        <v>0.0222453051321879</v>
+        <v>0.01657918832290117</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.257827499999999</v>
+        <v>6.067365000000001</v>
       </c>
       <c r="H25">
-        <v>12.515655</v>
+        <v>12.13473</v>
       </c>
       <c r="I25">
-        <v>0.1397145005735921</v>
+        <v>0.1379574678861274</v>
       </c>
       <c r="J25">
-        <v>0.1045566799876239</v>
+        <v>0.1038814651439112</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.261083333333333</v>
+        <v>6.163159333333334</v>
       </c>
       <c r="N25">
-        <v>21.78325</v>
+        <v>18.489478</v>
       </c>
       <c r="O25">
-        <v>0.137917980928751</v>
+        <v>0.1034774949290679</v>
       </c>
       <c r="P25">
-        <v>0.1604099844514633</v>
+        <v>0.1223554819199021</v>
       </c>
       <c r="Q25">
-        <v>45.43860696312499</v>
+        <v>37.39413722849</v>
       </c>
       <c r="R25">
-        <v>272.63164177875</v>
+        <v>224.36482337094</v>
       </c>
       <c r="S25">
-        <v>0.01926914182557865</v>
+        <v>0.01427549318361379</v>
       </c>
       <c r="T25">
-        <v>0.01677193541111138</v>
+        <v>0.01271046673022876</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.253470333333333</v>
+        <v>5.882126666666667</v>
       </c>
       <c r="H26">
-        <v>15.760411</v>
+        <v>17.64638</v>
       </c>
       <c r="I26">
-        <v>0.1172908623479712</v>
+        <v>0.1337455881950073</v>
       </c>
       <c r="J26">
-        <v>0.1316636044538163</v>
+        <v>0.1510649028768016</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.549349</v>
+        <v>14.3591045</v>
       </c>
       <c r="N26">
-        <v>21.098698</v>
+        <v>28.718209</v>
       </c>
       <c r="O26">
-        <v>0.2003757356031913</v>
+        <v>0.2410848207425929</v>
       </c>
       <c r="P26">
-        <v>0.1553690022437478</v>
+        <v>0.1900448623845124</v>
       </c>
       <c r="Q26">
-        <v>55.42069200747966</v>
+        <v>84.46207148890335</v>
       </c>
       <c r="R26">
-        <v>332.524152044878</v>
+        <v>506.77242893342</v>
       </c>
       <c r="S26">
-        <v>0.02350224282250739</v>
+        <v>0.03224403115510598</v>
       </c>
       <c r="T26">
-        <v>0.02045644285580491</v>
+        <v>0.0287091086783515</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.253470333333333</v>
+        <v>5.882126666666667</v>
       </c>
       <c r="H27">
-        <v>15.760411</v>
+        <v>17.64638</v>
       </c>
       <c r="I27">
-        <v>0.1172908623479712</v>
+        <v>0.1337455881950073</v>
       </c>
       <c r="J27">
-        <v>0.1316636044538163</v>
+        <v>0.1510649028768016</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>22.867162</v>
       </c>
       <c r="O27">
-        <v>0.1447806370771423</v>
+        <v>0.1279774712891934</v>
       </c>
       <c r="P27">
-        <v>0.1683918194424199</v>
+        <v>0.1513251280890933</v>
       </c>
       <c r="Q27">
-        <v>40.04398572484244</v>
+        <v>44.83584779706222</v>
       </c>
       <c r="R27">
-        <v>360.3958715235819</v>
+        <v>403.52263017356</v>
       </c>
       <c r="S27">
-        <v>0.01698144577406668</v>
+        <v>0.01711642217328282</v>
       </c>
       <c r="T27">
-        <v>0.02217107390832522</v>
+        <v>0.02285991577759844</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.253470333333333</v>
+        <v>5.882126666666667</v>
       </c>
       <c r="H28">
-        <v>15.760411</v>
+        <v>17.64638</v>
       </c>
       <c r="I28">
-        <v>0.1172908623479712</v>
+        <v>0.1337455881950073</v>
       </c>
       <c r="J28">
-        <v>0.1316636044538163</v>
+        <v>0.1510649028768016</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.987528666666667</v>
+        <v>10.16741533333333</v>
       </c>
       <c r="N28">
-        <v>17.962586</v>
+        <v>30.502246</v>
       </c>
       <c r="O28">
-        <v>0.1137279144929728</v>
+        <v>0.1707076860574528</v>
       </c>
       <c r="P28">
-        <v>0.1322749424887504</v>
+        <v>0.2018508585785606</v>
       </c>
       <c r="Q28">
-        <v>31.45530422031622</v>
+        <v>59.80602486327555</v>
       </c>
       <c r="R28">
-        <v>283.097737982846</v>
+        <v>538.2542237694801</v>
       </c>
       <c r="S28">
-        <v>0.01333924516391712</v>
+        <v>0.02283139988116266</v>
       </c>
       <c r="T28">
-        <v>0.01741579570699013</v>
+        <v>0.03049258034676927</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.253470333333333</v>
+        <v>5.882126666666667</v>
       </c>
       <c r="H29">
-        <v>15.760411</v>
+        <v>17.64638</v>
       </c>
       <c r="I29">
-        <v>0.1172908623479712</v>
+        <v>0.1337455881950073</v>
       </c>
       <c r="J29">
-        <v>0.1316636044538163</v>
+        <v>0.1510649028768016</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.596816</v>
+        <v>13.2092595</v>
       </c>
       <c r="N29">
-        <v>23.193632</v>
+        <v>26.418519</v>
       </c>
       <c r="O29">
-        <v>0.2202714628793548</v>
+        <v>0.2217792870509364</v>
       </c>
       <c r="P29">
-        <v>0.1707959165181028</v>
+        <v>0.1748264944989302</v>
       </c>
       <c r="Q29">
-        <v>60.92352881712533</v>
+        <v>77.69853755187</v>
       </c>
       <c r="R29">
-        <v>365.541172902752</v>
+        <v>466.19122531122</v>
       </c>
       <c r="S29">
-        <v>0.02583582983176866</v>
+        <v>0.02966200119609685</v>
       </c>
       <c r="T29">
-        <v>0.02248760599476651</v>
+        <v>0.02641014741177258</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.253470333333333</v>
+        <v>5.882126666666667</v>
       </c>
       <c r="H30">
-        <v>15.760411</v>
+        <v>17.64638</v>
       </c>
       <c r="I30">
-        <v>0.1172908623479712</v>
+        <v>0.1337455881950073</v>
       </c>
       <c r="J30">
-        <v>0.1316636044538163</v>
+        <v>0.1510649028768016</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>9.630672333333335</v>
+        <v>8.039057999999999</v>
       </c>
       <c r="N30">
-        <v>28.892017</v>
+        <v>24.117174</v>
       </c>
       <c r="O30">
-        <v>0.1829262690185878</v>
+        <v>0.1349732399307566</v>
       </c>
       <c r="P30">
-        <v>0.2127583348555158</v>
+        <v>0.1595971745290015</v>
       </c>
       <c r="Q30">
-        <v>50.59445139322078</v>
+        <v>47.28675743668</v>
       </c>
       <c r="R30">
-        <v>455.350062538987</v>
+        <v>425.58081693012</v>
       </c>
       <c r="S30">
-        <v>0.02145557983928713</v>
+        <v>0.01805207536512489</v>
       </c>
       <c r="T30">
-        <v>0.02801252924466922</v>
+        <v>0.02410953166963556</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.253470333333333</v>
+        <v>5.882126666666667</v>
       </c>
       <c r="H31">
-        <v>15.760411</v>
+        <v>17.64638</v>
       </c>
       <c r="I31">
-        <v>0.1172908623479712</v>
+        <v>0.1337455881950073</v>
       </c>
       <c r="J31">
-        <v>0.1316636044538163</v>
+        <v>0.1510649028768016</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>7.261083333333333</v>
+        <v>6.163159333333334</v>
       </c>
       <c r="N31">
-        <v>21.78325</v>
+        <v>18.489478</v>
       </c>
       <c r="O31">
-        <v>0.137917980928751</v>
+        <v>0.1034774949290679</v>
       </c>
       <c r="P31">
-        <v>0.1604099844514633</v>
+        <v>0.1223554819199021</v>
       </c>
       <c r="Q31">
-        <v>38.14588587952777</v>
+        <v>36.25248386551556</v>
       </c>
       <c r="R31">
-        <v>343.3129729157499</v>
+        <v>326.27235478964</v>
       </c>
       <c r="S31">
-        <v>0.01617651891642426</v>
+        <v>0.01383965842423406</v>
       </c>
       <c r="T31">
-        <v>0.02112015674326028</v>
+        <v>0.01848361899267427</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.0093</v>
+        <v>7.877956999999999</v>
       </c>
       <c r="H32">
-        <v>27.0279</v>
+        <v>23.633871</v>
       </c>
       <c r="I32">
-        <v>0.2011448621774351</v>
+        <v>0.1791260291470502</v>
       </c>
       <c r="J32">
-        <v>0.2257930161096244</v>
+        <v>0.2023218601899006</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.549349</v>
+        <v>14.3591045</v>
       </c>
       <c r="N32">
-        <v>21.098698</v>
+        <v>28.718209</v>
       </c>
       <c r="O32">
-        <v>0.2003757356031913</v>
+        <v>0.2410848207425929</v>
       </c>
       <c r="P32">
-        <v>0.1553690022437478</v>
+        <v>0.1900448623845124</v>
       </c>
       <c r="Q32">
-        <v>95.04224994569999</v>
+        <v>113.1204078095065</v>
       </c>
       <c r="R32">
-        <v>570.2534996741999</v>
+        <v>678.722446857039</v>
       </c>
       <c r="S32">
-        <v>0.04030454972160608</v>
+        <v>0.04318456662724908</v>
       </c>
       <c r="T32">
-        <v>0.03508123562655883</v>
+        <v>0.03845023007716822</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.0093</v>
+        <v>7.877956999999999</v>
       </c>
       <c r="H33">
-        <v>27.0279</v>
+        <v>23.633871</v>
       </c>
       <c r="I33">
-        <v>0.2011448621774351</v>
+        <v>0.1791260291470502</v>
       </c>
       <c r="J33">
-        <v>0.2257930161096244</v>
+        <v>0.2023218601899006</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>22.867162</v>
       </c>
       <c r="O33">
-        <v>0.1447806370771423</v>
+        <v>0.1279774712891934</v>
       </c>
       <c r="P33">
-        <v>0.1683918194424199</v>
+        <v>0.1513251280890933</v>
       </c>
       <c r="Q33">
-        <v>68.67237420219999</v>
+        <v>60.04883964934466</v>
       </c>
       <c r="R33">
-        <v>618.0513678198</v>
+        <v>540.439556844102</v>
       </c>
       <c r="S33">
-        <v>0.02912188129084304</v>
+        <v>0.02292409625231384</v>
       </c>
       <c r="T33">
-        <v>0.03802169680009128</v>
+        <v>0.03061638140846033</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.0093</v>
+        <v>7.877956999999999</v>
       </c>
       <c r="H34">
-        <v>27.0279</v>
+        <v>23.633871</v>
       </c>
       <c r="I34">
-        <v>0.2011448621774351</v>
+        <v>0.1791260291470502</v>
       </c>
       <c r="J34">
-        <v>0.2257930161096244</v>
+        <v>0.2023218601899006</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.987528666666667</v>
+        <v>10.16741533333333</v>
       </c>
       <c r="N34">
-        <v>17.962586</v>
+        <v>30.502246</v>
       </c>
       <c r="O34">
-        <v>0.1137279144929728</v>
+        <v>0.1707076860574528</v>
       </c>
       <c r="P34">
-        <v>0.1322749424887504</v>
+        <v>0.2018508585785606</v>
       </c>
       <c r="Q34">
-        <v>53.9434420166</v>
+        <v>80.09846079714066</v>
       </c>
       <c r="R34">
-        <v>485.4909781494</v>
+        <v>720.8861471742659</v>
       </c>
       <c r="S34">
-        <v>0.02287578568641614</v>
+        <v>0.03057818994835278</v>
       </c>
       <c r="T34">
-        <v>0.02986675822026207</v>
+        <v>0.04083884118854293</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.0093</v>
+        <v>7.877956999999999</v>
       </c>
       <c r="H35">
-        <v>27.0279</v>
+        <v>23.633871</v>
       </c>
       <c r="I35">
-        <v>0.2011448621774351</v>
+        <v>0.1791260291470502</v>
       </c>
       <c r="J35">
-        <v>0.2257930161096244</v>
+        <v>0.2023218601899006</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.596816</v>
+        <v>13.2092595</v>
       </c>
       <c r="N35">
-        <v>23.193632</v>
+        <v>26.418519</v>
       </c>
       <c r="O35">
-        <v>0.2202714628793548</v>
+        <v>0.2217792870509364</v>
       </c>
       <c r="P35">
-        <v>0.1707959165181028</v>
+        <v>0.1748264944989302</v>
       </c>
       <c r="Q35">
-        <v>104.4791943888</v>
+        <v>104.0619783428415</v>
       </c>
       <c r="R35">
-        <v>626.8751663327999</v>
+        <v>624.371870057049</v>
       </c>
       <c r="S35">
-        <v>0.04430647304248983</v>
+        <v>0.03972644303649805</v>
       </c>
       <c r="T35">
-        <v>0.03856452512983004</v>
+        <v>0.03537122157750298</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.0093</v>
+        <v>7.877956999999999</v>
       </c>
       <c r="H36">
-        <v>27.0279</v>
+        <v>23.633871</v>
       </c>
       <c r="I36">
-        <v>0.2011448621774351</v>
+        <v>0.1791260291470502</v>
       </c>
       <c r="J36">
-        <v>0.2257930161096244</v>
+        <v>0.2023218601899006</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>9.630672333333335</v>
+        <v>8.039057999999999</v>
       </c>
       <c r="N36">
-        <v>28.892017</v>
+        <v>24.117174</v>
       </c>
       <c r="O36">
-        <v>0.1829262690185878</v>
+        <v>0.1349732399307566</v>
       </c>
       <c r="P36">
-        <v>0.2127583348555158</v>
+        <v>0.1595971745290015</v>
       </c>
       <c r="Q36">
-        <v>86.76561625270001</v>
+        <v>63.33135324450598</v>
       </c>
       <c r="R36">
-        <v>780.8905462743</v>
+        <v>569.9821792005539</v>
       </c>
       <c r="S36">
-        <v>0.03679467917037625</v>
+        <v>0.02417722050990852</v>
       </c>
       <c r="T36">
-        <v>0.04803934612948834</v>
+        <v>0.0322899972317598</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.0093</v>
+        <v>7.877956999999999</v>
       </c>
       <c r="H37">
-        <v>27.0279</v>
+        <v>23.633871</v>
       </c>
       <c r="I37">
-        <v>0.2011448621774351</v>
+        <v>0.1791260291470502</v>
       </c>
       <c r="J37">
-        <v>0.2257930161096244</v>
+        <v>0.2023218601899006</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>7.261083333333333</v>
+        <v>6.163159333333334</v>
       </c>
       <c r="N37">
-        <v>21.78325</v>
+        <v>18.489478</v>
       </c>
       <c r="O37">
-        <v>0.137917980928751</v>
+        <v>0.1034774949290679</v>
       </c>
       <c r="P37">
-        <v>0.1604099844514633</v>
+        <v>0.1223554819199021</v>
       </c>
       <c r="Q37">
-        <v>65.41727807499998</v>
+        <v>48.55310421214867</v>
       </c>
       <c r="R37">
-        <v>588.755502675</v>
+        <v>436.977937909338</v>
       </c>
       <c r="S37">
-        <v>0.02774149326570375</v>
+        <v>0.01853551277272795</v>
       </c>
       <c r="T37">
-        <v>0.03621945420339385</v>
+        <v>0.02475518870646635</v>
       </c>
     </row>
   </sheetData>
